--- a/DesignTable1.xlsx
+++ b/DesignTable1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasho\Desktop\CatiaScripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasho\Desktop\CatiaScripts\Group-dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7163A99A-C120-40E6-A98B-4D8559AD2C25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDF5089-2BC3-4780-B661-32E203B6572B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9420" xr2:uid="{AD0A256B-BABC-48BD-B036-8BF40D88CEF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AD0A256B-BABC-48BD-B036-8BF40D88CEF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C5E8286-B857-4542-9897-524B54A01EAF}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,6 +436,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DesignTable1.xlsx
+++ b/DesignTable1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pasho\Desktop\CatiaScripts\Group-dissertation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDF5089-2BC3-4780-B661-32E203B6572B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38684202-880E-4BBB-BB05-C1CAF786D7E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AD0A256B-BABC-48BD-B036-8BF40D88CEF9}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
